--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1856.097992065634</v>
+        <v>1330.329728494958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0129997730255127</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.0142147244826</v>
+        <v>11.34615423506322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.670159673900997</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1556.49000000004</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>264.64</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.37739353073907</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.43263169305758</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1060,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1113,15 +1113,99 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>134.3550000000147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>150.2100000000004</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>155.1200000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.3950000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>155.3800000000005</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240.6150000000155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>260.0750000000012</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>262.8450000000012</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>270.3550000000013</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>266.3300000000012</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>201.545</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>184.695</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>203.815</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>189.74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>198.2299999999993</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.23000000001403</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999978</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999977</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999979</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>201.545</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>184.695</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>203.815</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>189.74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>198.2299999999993</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>240.6150000000155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>260.0750000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>262.8450000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>270.3550000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>266.3300000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.54500000000002</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>34.69499999999999</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>53.815</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>39.74000000000001</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>48.22999999999934</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>90.6150000000155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>110.0750000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>112.8450000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3550000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3300000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1802,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1813,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1824,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1835,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1846,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1857,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1868,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1879,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1890,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1901,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1912,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1923,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1934,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1945,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2011,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,10 +2180,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2107,10 +2191,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2118,10 +2202,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2129,10 +2213,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2143,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2151,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2162,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2173,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2184,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2198,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2206,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2217,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2228,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2239,12 +2323,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
